--- a/data/custom_files/kundenmonitor_churn_merged.xlsx
+++ b/data/custom_files/kundenmonitor_churn_merged.xlsx
@@ -760,12 +760,8 @@
       <c r="AM2" t="n">
         <v>2023</v>
       </c>
-      <c r="AN2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -887,12 +883,8 @@
       <c r="AM3" t="n">
         <v>2023</v>
       </c>
-      <c r="AN3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1014,12 +1006,8 @@
       <c r="AM4" t="n">
         <v>2023</v>
       </c>
-      <c r="AN4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1141,17 +1129,13 @@
       <c r="AM5" t="n">
         <v>2023</v>
       </c>
-      <c r="AN5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DAK-Gesundheit</t>
+          <t>DAK Gesundheit</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1269,10 +1253,10 @@
         <v>2023</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.5</v>
+        <v>-0.00087536249841252</v>
       </c>
       <c r="AO6" t="n">
-        <v>2.5</v>
+        <v>0.002143072356817348</v>
       </c>
     </row>
     <row r="7">
@@ -1649,17 +1633,13 @@
       <c r="AM9" t="n">
         <v>2023</v>
       </c>
-      <c r="AN9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KKH</t>
+          <t>Kaufmännische Krankenkasse (KKH)</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1777,16 +1757,16 @@
         <v>2023</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.5</v>
+        <v>0.001942320634332377</v>
       </c>
       <c r="AO10" t="n">
-        <v>2.5</v>
+        <v>0.001183759271241986</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KNAPP-SCHAFT</t>
+          <t>Knappschaft</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1904,16 +1884,16 @@
         <v>2023</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.5</v>
+        <v>0.005634290048780808</v>
       </c>
       <c r="AO11" t="n">
-        <v>2.5</v>
+        <v>0.007351106689799226</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>Techniker-Krankenkasse (TK)</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2031,10 +2011,10 @@
         <v>2023</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.5</v>
+        <v>-0.006013625822741238</v>
       </c>
       <c r="AO12" t="n">
-        <v>2.5</v>
+        <v>-0.006164025447229188</v>
       </c>
     </row>
     <row r="13">
@@ -2082,9 +2062,7 @@
       <c r="N13" t="n">
         <v>2.497307264519435</v>
       </c>
-      <c r="O13" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
         <v>2.790974205452179</v>
       </c>
@@ -2100,9 +2078,7 @@
       <c r="T13" t="n">
         <v>3</v>
       </c>
-      <c r="U13" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="U13" t="inlineStr"/>
       <c r="V13" t="n">
         <v>3</v>
       </c>
@@ -2157,12 +2133,8 @@
       <c r="AM13" t="n">
         <v>2023</v>
       </c>
-      <c r="AN13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2284,12 +2256,8 @@
       <c r="AM14" t="n">
         <v>2023</v>
       </c>
-      <c r="AN14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2411,12 +2379,8 @@
       <c r="AM15" t="n">
         <v>2023</v>
       </c>
-      <c r="AN15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2538,12 +2502,8 @@
       <c r="AM16" t="n">
         <v>2023</v>
       </c>
-      <c r="AN16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2665,12 +2625,8 @@
       <c r="AM17" t="n">
         <v>2023</v>
       </c>
-      <c r="AN17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2792,12 +2748,8 @@
       <c r="AM18" t="n">
         <v>2023</v>
       </c>
-      <c r="AN18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2919,17 +2871,13 @@
       <c r="AM19" t="n">
         <v>2023</v>
       </c>
-      <c r="AN19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AOK Baden-Württ.</t>
+          <t>AOK Baden-Württemberg</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -3047,10 +2995,10 @@
         <v>2023</v>
       </c>
       <c r="AN20" t="n">
-        <v>2.5</v>
+        <v>-0.004068690168954815</v>
       </c>
       <c r="AO20" t="n">
-        <v>2.5</v>
+        <v>-0.0008998489385271069</v>
       </c>
     </row>
     <row r="21">
@@ -3564,7 +3512,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AOK Nordwest</t>
+          <t>AOK NordWest</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -3682,16 +3630,16 @@
         <v>2023</v>
       </c>
       <c r="AN25" t="n">
-        <v>2.5</v>
+        <v>-0.003304863959172373</v>
       </c>
       <c r="AO25" t="n">
-        <v>2.5</v>
+        <v>-0.0004225607732795042</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AOK Plus</t>
+          <t>AOK PLUS</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -3809,16 +3757,16 @@
         <v>2023</v>
       </c>
       <c r="AN26" t="n">
-        <v>2.5</v>
+        <v>-0.00305752403889545</v>
       </c>
       <c r="AO26" t="n">
-        <v>2.5</v>
+        <v>-0.0005493805680065749</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AOK Rheinl./Hamburg</t>
+          <t>AOK Rheinland/Hamburg</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -3936,16 +3884,16 @@
         <v>2023</v>
       </c>
       <c r="AN27" t="n">
-        <v>2.5</v>
+        <v>-0.001097887442704847</v>
       </c>
       <c r="AO27" t="n">
-        <v>2.5</v>
+        <v>0.0007590804700289967</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AOK Rheinl.-Pfalz/Saarland</t>
+          <t>AOK Rheinland-Pfalz/Saarland</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -4063,16 +4011,16 @@
         <v>2023</v>
       </c>
       <c r="AN28" t="n">
-        <v>2.5</v>
+        <v>-0.003388607558557617</v>
       </c>
       <c r="AO28" t="n">
-        <v>2.5</v>
+        <v>0.0003845281662801701</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AOK Sachs.-Anhalt</t>
+          <t>AOK Sachsen-Anhalt</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -4190,10 +4138,10 @@
         <v>2023</v>
       </c>
       <c r="AN29" t="n">
-        <v>2.5</v>
+        <v>-0.004043224737344472</v>
       </c>
       <c r="AO29" t="n">
-        <v>2.5</v>
+        <v>-0.0004843653111940905</v>
       </c>
     </row>
     <row r="30">
@@ -4316,12 +4264,8 @@
       <c r="AM30" t="n">
         <v>2023</v>
       </c>
-      <c r="AN30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4453,7 +4397,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Bahn-BKK</t>
+          <t>BAHN-BKK</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -4571,16 +4515,16 @@
         <v>2023</v>
       </c>
       <c r="AN32" t="n">
-        <v>2.5</v>
+        <v>-0.002760764682187936</v>
       </c>
       <c r="AO32" t="n">
-        <v>2.5</v>
+        <v>0.001167438679744838</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Bergische KK</t>
+          <t>DIE BERGISCHE KRANKENKASSE</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -4698,16 +4642,16 @@
         <v>2023</v>
       </c>
       <c r="AN33" t="n">
-        <v>2.5</v>
+        <v>-0.007613941988209395</v>
       </c>
       <c r="AO33" t="n">
-        <v>2.5</v>
+        <v>-0.005342585554182114</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BKK 24</t>
+          <t>BKK24</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -4825,16 +4769,16 @@
         <v>2023</v>
       </c>
       <c r="AN34" t="n">
-        <v>2.5</v>
+        <v>0.004880603736243416</v>
       </c>
       <c r="AO34" t="n">
-        <v>2.5</v>
+        <v>0.003172712873079135</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BKK Deutsche Bank</t>
+          <t>BKK Deutsche Bank AG</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -4952,16 +4896,16 @@
         <v>2023</v>
       </c>
       <c r="AN35" t="n">
-        <v>2.5</v>
+        <v>-0.003130297812223143</v>
       </c>
       <c r="AO35" t="n">
-        <v>2.5</v>
+        <v>-0.0006615712571420502</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BKK Faber-Castell</t>
+          <t>BKK Faber-Castell &amp; Partner</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -5079,16 +5023,16 @@
         <v>2023</v>
       </c>
       <c r="AN36" t="n">
-        <v>2.5</v>
+        <v>-0.02717842507312873</v>
       </c>
       <c r="AO36" t="n">
-        <v>2.5</v>
+        <v>-0.00146417758954027</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BKK Euregio</t>
+          <t>BKK EUREGIO</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -5206,10 +5150,10 @@
         <v>2023</v>
       </c>
       <c r="AN37" t="n">
-        <v>2.5</v>
+        <v>-0.03687718419703247</v>
       </c>
       <c r="AO37" t="n">
-        <v>2.5</v>
+        <v>-0.0108901380898782</v>
       </c>
     </row>
     <row r="38">
@@ -5342,7 +5286,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BKK GS</t>
+          <t>BKK Gildemeister Seidensticker</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -5460,10 +5404,10 @@
         <v>2023</v>
       </c>
       <c r="AN39" t="n">
-        <v>2.5</v>
+        <v>-0.007101193728788303</v>
       </c>
       <c r="AO39" t="n">
-        <v>2.5</v>
+        <v>-0.0168250275910455</v>
       </c>
     </row>
     <row r="40">
@@ -5977,7 +5921,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BKK  VBU</t>
+          <t>BKK mkk - meine Krankenkassesss</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -6094,17 +6038,13 @@
       <c r="AM44" t="n">
         <v>2023</v>
       </c>
-      <c r="AN44" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AN44" t="inlineStr"/>
+      <c r="AO44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BKK VerbundPlus</t>
+          <t>BKK Verbund Plus</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -6222,10 +6162,10 @@
         <v>2023</v>
       </c>
       <c r="AN45" t="n">
-        <v>2.5</v>
+        <v>0.005101168346775766</v>
       </c>
       <c r="AO45" t="n">
-        <v>2.5</v>
+        <v>0.009463175068683579</v>
       </c>
     </row>
     <row r="46">
@@ -6739,7 +6679,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Heimat KK</t>
+          <t>Heimat Krankenkasse</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -6781,9 +6721,7 @@
       <c r="N50" t="n">
         <v>2.430029795650132</v>
       </c>
-      <c r="O50" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="n">
         <v>2.273825965278867</v>
       </c>
@@ -6857,10 +6795,10 @@
         <v>2023</v>
       </c>
       <c r="AN50" t="n">
-        <v>2.5</v>
+        <v>-0.006340077838474416</v>
       </c>
       <c r="AO50" t="n">
-        <v>2.5</v>
+        <v>-0.002986567909068947</v>
       </c>
     </row>
     <row r="51">
@@ -6993,7 +6931,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Mobil Krankenkasse</t>
+          <t>Betriebskrankenkasse Mobil</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -7111,10 +7049,10 @@
         <v>2023</v>
       </c>
       <c r="AN52" t="n">
-        <v>2.5</v>
+        <v>-0.001406820373719581</v>
       </c>
       <c r="AO52" t="n">
-        <v>2.5</v>
+        <v>6.771965714893764e-05</v>
       </c>
     </row>
     <row r="53">
@@ -7374,7 +7312,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>R+V BKK</t>
+          <t>R+V Betriebskrankenkasse</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -7492,10 +7430,10 @@
         <v>2023</v>
       </c>
       <c r="AN55" t="n">
-        <v>2.5</v>
+        <v>-0.006213456927245151</v>
       </c>
       <c r="AO55" t="n">
-        <v>2.5</v>
+        <v>-0.004955357255186237</v>
       </c>
     </row>
     <row r="56">
@@ -7755,7 +7693,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Securvita</t>
+          <t>SECURVITA BKK</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -7873,16 +7811,16 @@
         <v>2023</v>
       </c>
       <c r="AN58" t="n">
-        <v>2.5</v>
+        <v>-0.002145810962005898</v>
       </c>
       <c r="AO58" t="n">
-        <v>2.5</v>
+        <v>-0.0005353770934317459</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>VIACTIV KK</t>
+          <t>VIACTIV Krankenkasse</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -8000,16 +7938,16 @@
         <v>2023</v>
       </c>
       <c r="AN59" t="n">
-        <v>2.5</v>
+        <v>-0.003348910271349111</v>
       </c>
       <c r="AO59" t="n">
-        <v>2.5</v>
+        <v>-0.002872019324449628</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Vivida BKK</t>
+          <t>vivida BKK</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -8127,10 +8065,10 @@
         <v>2023</v>
       </c>
       <c r="AN60" t="n">
-        <v>2.5</v>
+        <v>0.0004942075281204191</v>
       </c>
       <c r="AO60" t="n">
-        <v>2.5</v>
+        <v>-0.0002199298008759582</v>
       </c>
     </row>
     <row r="61">
@@ -8253,17 +8191,13 @@
       <c r="AM61" t="n">
         <v>2023</v>
       </c>
-      <c r="AN61" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO61" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AN61" t="inlineStr"/>
+      <c r="AO61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BIG direkt gesund</t>
+          <t>BIG - direkt gesund</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -8329,27 +8263,13 @@
       <c r="V62" t="n">
         <v>2.0680953303677</v>
       </c>
-      <c r="W62" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="X62" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="n">
         <v>1.933178811279067</v>
       </c>
@@ -8381,16 +8301,16 @@
         <v>2023</v>
       </c>
       <c r="AN62" t="n">
-        <v>2.5</v>
+        <v>-0.002532043234563108</v>
       </c>
       <c r="AO62" t="n">
-        <v>2.5</v>
+        <v>-0.0006903866831058354</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>IKK Brandenburg/Berlin</t>
+          <t>IKK Brandenburg und Berlin</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -8508,10 +8428,10 @@
         <v>2023</v>
       </c>
       <c r="AN63" t="n">
-        <v>2.5</v>
+        <v>0.001326575451138806</v>
       </c>
       <c r="AO63" t="n">
-        <v>2.5</v>
+        <v>0.003553983069110811</v>
       </c>
     </row>
     <row r="64">
@@ -8644,12 +8564,10 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>IKK - Die Innovationskasse</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2.5</v>
-      </c>
+          <t>IKK – Die Innovationskasse</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
         <v>2.415980051279242</v>
       </c>
@@ -8762,10 +8680,10 @@
         <v>2023</v>
       </c>
       <c r="AN65" t="n">
-        <v>2.5</v>
+        <v>-0.01670646576740228</v>
       </c>
       <c r="AO65" t="n">
-        <v>2.5</v>
+        <v>-0.02303417513248892</v>
       </c>
     </row>
     <row r="66">
@@ -8774,9 +8692,7 @@
           <t>IKK gesund plus</t>
         </is>
       </c>
-      <c r="B66" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
         <v>2.334080485651544</v>
       </c>
@@ -9040,9 +8956,7 @@
       <c r="E68" t="n">
         <v>3.07285576715462</v>
       </c>
-      <c r="F68" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="n">
         <v>2.04095438896127</v>
       </c>
@@ -9091,27 +9005,13 @@
       <c r="V68" t="n">
         <v>2.43087483936959</v>
       </c>
-      <c r="W68" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="X68" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr"/>
       <c r="AD68" t="n">
         <v>2.71271658000814</v>
       </c>
@@ -9142,12 +9042,8 @@
       <c r="AM68" t="n">
         <v>2024</v>
       </c>
-      <c r="AN68" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO68" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AN68" t="inlineStr"/>
+      <c r="AO68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9279,7 +9175,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>AOK Rheinl./Hamburg</t>
+          <t>AOK Rheinland/Hamburg</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -9397,16 +9293,16 @@
         <v>2024</v>
       </c>
       <c r="AN70" t="n">
-        <v>2.5</v>
+        <v>-0.001097887442704847</v>
       </c>
       <c r="AO70" t="n">
-        <v>2.5</v>
+        <v>0.0007590804700289967</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>AOK Nordwest</t>
+          <t>AOK NordWest</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -9524,10 +9420,10 @@
         <v>2024</v>
       </c>
       <c r="AN71" t="n">
-        <v>2.5</v>
+        <v>-0.003304863959172373</v>
       </c>
       <c r="AO71" t="n">
-        <v>2.5</v>
+        <v>-0.0004225607732795042</v>
       </c>
     </row>
     <row r="72">
@@ -9548,9 +9444,7 @@
       <c r="E72" t="n">
         <v>2.50986245868727</v>
       </c>
-      <c r="F72" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="n">
         <v>2.1990484260319</v>
       </c>
@@ -9660,7 +9554,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>IKK - Die Innovationskasse</t>
+          <t>IKK – Die Innovationskasse</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -9778,16 +9672,16 @@
         <v>2024</v>
       </c>
       <c r="AN73" t="n">
-        <v>2.5</v>
+        <v>-0.01670646576740228</v>
       </c>
       <c r="AO73" t="n">
-        <v>2.5</v>
+        <v>-0.02303417513248892</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>AOK Baden-Württ.</t>
+          <t>AOK Baden-Württemberg</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -9905,16 +9799,16 @@
         <v>2024</v>
       </c>
       <c r="AN74" t="n">
-        <v>2.5</v>
+        <v>-0.004068690168954815</v>
       </c>
       <c r="AO74" t="n">
-        <v>2.5</v>
+        <v>-0.0008998489385271069</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BKK Euregio</t>
+          <t>BKK EUREGIO</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -9929,9 +9823,7 @@
       <c r="E75" t="n">
         <v>2.42971793193359</v>
       </c>
-      <c r="F75" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="n">
         <v>2.50483378709952</v>
       </c>
@@ -10032,10 +9924,10 @@
         <v>2024</v>
       </c>
       <c r="AN75" t="n">
-        <v>2.5</v>
+        <v>-0.03687718419703247</v>
       </c>
       <c r="AO75" t="n">
-        <v>2.5</v>
+        <v>-0.0108901380898782</v>
       </c>
     </row>
     <row r="76">
@@ -10158,12 +10050,8 @@
       <c r="AM76" t="n">
         <v>2024</v>
       </c>
-      <c r="AN76" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO76" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AN76" t="inlineStr"/>
+      <c r="AO76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10285,17 +10173,13 @@
       <c r="AM77" t="n">
         <v>2024</v>
       </c>
-      <c r="AN77" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO77" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AN77" t="inlineStr"/>
+      <c r="AO77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>IKK Brandenburg/Berlin</t>
+          <t>IKK Brandenburg und Berlin</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -10413,10 +10297,10 @@
         <v>2024</v>
       </c>
       <c r="AN78" t="n">
-        <v>2.5</v>
+        <v>0.001326575451138806</v>
       </c>
       <c r="AO78" t="n">
-        <v>2.5</v>
+        <v>0.003553983069110811</v>
       </c>
     </row>
     <row r="79">
@@ -10437,9 +10321,7 @@
       <c r="E79" t="n">
         <v>2.34673999091219</v>
       </c>
-      <c r="F79" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="n">
         <v>2.03172070789541</v>
       </c>
@@ -10676,7 +10558,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BKK 24</t>
+          <t>BKK24</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -10691,9 +10573,7 @@
       <c r="E81" t="n">
         <v>2.38570484110314</v>
       </c>
-      <c r="F81" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="n">
         <v>2.15497113760556</v>
       </c>
@@ -10794,16 +10674,16 @@
         <v>2024</v>
       </c>
       <c r="AN81" t="n">
-        <v>2.5</v>
+        <v>0.004880603736243416</v>
       </c>
       <c r="AO81" t="n">
-        <v>2.5</v>
+        <v>0.003172712873079135</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>DAK-Gesundheit</t>
+          <t>DAK Gesundheit</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -10921,16 +10801,16 @@
         <v>2024</v>
       </c>
       <c r="AN82" t="n">
-        <v>2.5</v>
+        <v>-0.00087536249841252</v>
       </c>
       <c r="AO82" t="n">
-        <v>2.5</v>
+        <v>0.002143072356817348</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>KNAPP-SCHAFT</t>
+          <t>Knappschaft</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -11048,10 +10928,10 @@
         <v>2024</v>
       </c>
       <c r="AN83" t="n">
-        <v>2.5</v>
+        <v>0.005634290048780808</v>
       </c>
       <c r="AO83" t="n">
-        <v>2.5</v>
+        <v>0.007351106689799226</v>
       </c>
     </row>
     <row r="84">
@@ -11174,12 +11054,8 @@
       <c r="AM84" t="n">
         <v>2024</v>
       </c>
-      <c r="AN84" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO84" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AN84" t="inlineStr"/>
+      <c r="AO84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -11311,7 +11187,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>KKH</t>
+          <t>Kaufmännische Krankenkasse (KKH)</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -11429,10 +11305,10 @@
         <v>2024</v>
       </c>
       <c r="AN86" t="n">
-        <v>2.5</v>
+        <v>0.001942320634332377</v>
       </c>
       <c r="AO86" t="n">
-        <v>2.5</v>
+        <v>0.001183759271241986</v>
       </c>
     </row>
     <row r="87">
@@ -11453,9 +11329,7 @@
       <c r="E87" t="n">
         <v>2.40718438506975</v>
       </c>
-      <c r="F87" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="F87" t="inlineStr"/>
       <c r="G87" t="n">
         <v>1.96658863519428</v>
       </c>
@@ -11565,7 +11439,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>AOK Rheinl.-Pfalz/Saarland</t>
+          <t>AOK Rheinland-Pfalz/Saarland</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -11683,10 +11557,10 @@
         <v>2024</v>
       </c>
       <c r="AN88" t="n">
-        <v>2.5</v>
+        <v>-0.003388607558557617</v>
       </c>
       <c r="AO88" t="n">
-        <v>2.5</v>
+        <v>0.0003845281662801701</v>
       </c>
     </row>
     <row r="89">
@@ -11819,7 +11693,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>IKK quad classic</t>
+          <t>IKK classic</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -11937,10 +11811,10 @@
         <v>2024</v>
       </c>
       <c r="AN90" t="n">
-        <v>2.5</v>
+        <v>-0.0006409637350587141</v>
       </c>
       <c r="AO90" t="n">
-        <v>2.5</v>
+        <v>0.001405036942618411</v>
       </c>
     </row>
     <row r="91">
@@ -11961,9 +11835,7 @@
       <c r="E91" t="n">
         <v>2.21205205313545</v>
       </c>
-      <c r="F91" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="n">
         <v>2.00808650197343</v>
       </c>
@@ -12200,7 +12072,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>mkk</t>
+          <t>BKK mkk - meine Krankenkasse</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -12215,9 +12087,7 @@
       <c r="E93" t="n">
         <v>2.36032001382547</v>
       </c>
-      <c r="F93" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="n">
         <v>2.06287818755332</v>
       </c>
@@ -12318,10 +12188,10 @@
         <v>2024</v>
       </c>
       <c r="AN93" t="n">
-        <v>2.5</v>
+        <v>-0.003615497049486254</v>
       </c>
       <c r="AO93" t="n">
-        <v>2.5</v>
+        <v>0.0006342559875128278</v>
       </c>
     </row>
     <row r="94">
@@ -12342,9 +12212,7 @@
       <c r="E94" t="n">
         <v>2.24635677815632</v>
       </c>
-      <c r="F94" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="n">
         <v>1.87724584374701</v>
       </c>
@@ -12571,12 +12439,8 @@
       <c r="AM95" t="n">
         <v>2024</v>
       </c>
-      <c r="AN95" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO95" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AN95" t="inlineStr"/>
+      <c r="AO95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -12698,17 +12562,13 @@
       <c r="AM96" t="n">
         <v>2024</v>
       </c>
-      <c r="AN96" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO96" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AN96" t="inlineStr"/>
+      <c r="AO96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Barmer</t>
+          <t>BARMER</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -12826,10 +12686,10 @@
         <v>2024</v>
       </c>
       <c r="AN97" t="n">
-        <v>2.5</v>
+        <v>-4.872050432707916e-05</v>
       </c>
       <c r="AO97" t="n">
-        <v>2.5</v>
+        <v>-0.0002315519143679507</v>
       </c>
     </row>
     <row r="98">
@@ -12850,9 +12710,7 @@
       <c r="E98" t="n">
         <v>2.56787528310196</v>
       </c>
-      <c r="F98" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="n">
         <v>2.02024470585687</v>
       </c>
@@ -12962,7 +12820,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>AOK Sachs.-Anhalt</t>
+          <t>AOK Sachsen-Anhalt</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -12977,9 +12835,7 @@
       <c r="E99" t="n">
         <v>2.14903414862276</v>
       </c>
-      <c r="F99" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="n">
         <v>1.70604418648824</v>
       </c>
@@ -13080,10 +12936,10 @@
         <v>2024</v>
       </c>
       <c r="AN99" t="n">
-        <v>2.5</v>
+        <v>-0.004043224737344472</v>
       </c>
       <c r="AO99" t="n">
-        <v>2.5</v>
+        <v>-0.0004843653111940905</v>
       </c>
     </row>
     <row r="100">
@@ -13206,12 +13062,8 @@
       <c r="AM100" t="n">
         <v>2024</v>
       </c>
-      <c r="AN100" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO100" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AN100" t="inlineStr"/>
+      <c r="AO100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -13343,7 +13195,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BKK GS</t>
+          <t>BKK Gildemeister Seidensticker</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -13358,9 +13210,7 @@
       <c r="E102" t="n">
         <v>2.11277407372031</v>
       </c>
-      <c r="F102" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="F102" t="inlineStr"/>
       <c r="G102" t="n">
         <v>2.01346621616587</v>
       </c>
@@ -13461,10 +13311,10 @@
         <v>2024</v>
       </c>
       <c r="AN102" t="n">
-        <v>2.5</v>
+        <v>-0.007101193728788303</v>
       </c>
       <c r="AO102" t="n">
-        <v>2.5</v>
+        <v>-0.0168250275910455</v>
       </c>
     </row>
     <row r="103">
@@ -13485,9 +13335,7 @@
       <c r="E103" t="n">
         <v>2.11055841526038</v>
       </c>
-      <c r="F103" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="n">
         <v>1.920077116501</v>
       </c>
@@ -13724,7 +13572,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BKK Deutsche Bank</t>
+          <t>BKK Deutsche Bank AG</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -13842,10 +13690,10 @@
         <v>2024</v>
       </c>
       <c r="AN105" t="n">
-        <v>2.5</v>
+        <v>-0.003130297812223143</v>
       </c>
       <c r="AO105" t="n">
-        <v>2.5</v>
+        <v>-0.0006615712571420502</v>
       </c>
     </row>
     <row r="106">
@@ -13866,9 +13714,7 @@
       <c r="E106" t="n">
         <v>2.32805616085852</v>
       </c>
-      <c r="F106" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="F106" t="inlineStr"/>
       <c r="G106" t="n">
         <v>2.06126161036316</v>
       </c>
@@ -13993,9 +13839,7 @@
       <c r="E107" t="n">
         <v>2.37732719488878</v>
       </c>
-      <c r="F107" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="F107" t="inlineStr"/>
       <c r="G107" t="n">
         <v>2.12827434090738</v>
       </c>
@@ -14105,7 +13949,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BKK VerbundPlus</t>
+          <t>BKK Verbund Plus</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -14120,9 +13964,7 @@
       <c r="E108" t="n">
         <v>2.27886941881962</v>
       </c>
-      <c r="F108" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="F108" t="inlineStr"/>
       <c r="G108" t="n">
         <v>1.89465230432216</v>
       </c>
@@ -14223,16 +14065,16 @@
         <v>2024</v>
       </c>
       <c r="AN108" t="n">
-        <v>2.5</v>
+        <v>0.005101168346775766</v>
       </c>
       <c r="AO108" t="n">
-        <v>2.5</v>
+        <v>0.009463175068683579</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>AOK Plus</t>
+          <t>AOK PLUS</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -14350,10 +14192,10 @@
         <v>2024</v>
       </c>
       <c r="AN109" t="n">
-        <v>2.5</v>
+        <v>-0.00305752403889545</v>
       </c>
       <c r="AO109" t="n">
-        <v>2.5</v>
+        <v>-0.0005493805680065749</v>
       </c>
     </row>
     <row r="110">
@@ -14857,12 +14699,8 @@
       <c r="AM113" t="n">
         <v>2024</v>
       </c>
-      <c r="AN113" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO113" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AN113" t="inlineStr"/>
+      <c r="AO113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -14984,17 +14822,13 @@
       <c r="AM114" t="n">
         <v>2024</v>
       </c>
-      <c r="AN114" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO114" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AN114" t="inlineStr"/>
+      <c r="AO114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BIG direkt gesund</t>
+          <t>BIG - direkt gesund</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -15060,27 +14894,13 @@
       <c r="V115" t="n">
         <v>2.06632383820187</v>
       </c>
-      <c r="W115" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="X115" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y115" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z115" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA115" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AB115" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AC115" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr"/>
+      <c r="AA115" t="inlineStr"/>
+      <c r="AB115" t="inlineStr"/>
+      <c r="AC115" t="inlineStr"/>
       <c r="AD115" t="n">
         <v>1.89486751126403</v>
       </c>
@@ -15112,16 +14932,16 @@
         <v>2024</v>
       </c>
       <c r="AN115" t="n">
-        <v>2.5</v>
+        <v>-0.002532043234563108</v>
       </c>
       <c r="AO115" t="n">
-        <v>2.5</v>
+        <v>-0.0006903866831058354</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Mobil Krankenkasse</t>
+          <t>Betriebskrankenkasse Mobil</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -15239,16 +15059,16 @@
         <v>2024</v>
       </c>
       <c r="AN116" t="n">
-        <v>2.5</v>
+        <v>-0.001406820373719581</v>
       </c>
       <c r="AO116" t="n">
-        <v>2.5</v>
+        <v>6.771965714893764e-05</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Bahn-BKK</t>
+          <t>BAHN-BKK</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -15366,16 +15186,16 @@
         <v>2024</v>
       </c>
       <c r="AN117" t="n">
-        <v>2.5</v>
+        <v>-0.002760764682187936</v>
       </c>
       <c r="AO117" t="n">
-        <v>2.5</v>
+        <v>0.001167438679744838</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>Techniker-Krankenkasse (TK)</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -15493,10 +15313,10 @@
         <v>2024</v>
       </c>
       <c r="AN118" t="n">
-        <v>2.5</v>
+        <v>-0.006013625822741238</v>
       </c>
       <c r="AO118" t="n">
-        <v>2.5</v>
+        <v>-0.006164025447229188</v>
       </c>
     </row>
     <row r="119">
@@ -15644,9 +15464,7 @@
       <c r="E120" t="n">
         <v>2.0420778154993</v>
       </c>
-      <c r="F120" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="F120" t="inlineStr"/>
       <c r="G120" t="n">
         <v>1.74947016147058</v>
       </c>
@@ -15756,7 +15574,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BKK Faber-Castell</t>
+          <t>BKK Faber-Castell &amp; Partner</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -15771,9 +15589,7 @@
       <c r="E121" t="n">
         <v>2.09353300069324</v>
       </c>
-      <c r="F121" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="F121" t="inlineStr"/>
       <c r="G121" t="n">
         <v>2.02443792030353</v>
       </c>
@@ -15798,9 +15614,7 @@
       <c r="N121" t="n">
         <v>2.03972509941851</v>
       </c>
-      <c r="O121" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="O121" t="inlineStr"/>
       <c r="P121" t="n">
         <v>1.94430426470074</v>
       </c>
@@ -15874,16 +15688,16 @@
         <v>2024</v>
       </c>
       <c r="AN121" t="n">
-        <v>2.5</v>
+        <v>-0.02717842507312873</v>
       </c>
       <c r="AO121" t="n">
-        <v>2.5</v>
+        <v>-0.00146417758954027</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>R+V BKK</t>
+          <t>R+V Betriebskrankenkasse</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -16001,10 +15815,10 @@
         <v>2024</v>
       </c>
       <c r="AN122" t="n">
-        <v>2.5</v>
+        <v>-0.006213456927245151</v>
       </c>
       <c r="AO122" t="n">
-        <v>2.5</v>
+        <v>-0.004955357255186237</v>
       </c>
     </row>
     <row r="123">
@@ -16025,9 +15839,7 @@
       <c r="E123" t="n">
         <v>1.95035425912416</v>
       </c>
-      <c r="F123" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="F123" t="inlineStr"/>
       <c r="G123" t="n">
         <v>1.80458103300663</v>
       </c>
@@ -16137,7 +15949,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Heimat KK</t>
+          <t>Heimat Krankenkasse</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -16152,9 +15964,7 @@
       <c r="E124" t="n">
         <v>1.79732863508297</v>
       </c>
-      <c r="F124" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="F124" t="inlineStr"/>
       <c r="G124" t="n">
         <v>1.84151006308011</v>
       </c>
@@ -16255,10 +16065,10 @@
         <v>2024</v>
       </c>
       <c r="AN124" t="n">
-        <v>2.5</v>
+        <v>-0.006340077838474416</v>
       </c>
       <c r="AO124" t="n">
-        <v>2.5</v>
+        <v>-0.002986567909068947</v>
       </c>
     </row>
     <row r="125">
@@ -16279,9 +16089,7 @@
       <c r="E125" t="n">
         <v>1.45357975512744</v>
       </c>
-      <c r="F125" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="F125" t="inlineStr"/>
       <c r="G125" t="n">
         <v>1.42660887898743</v>
       </c>

--- a/data/custom_files/kundenmonitor_churn_merged.xlsx
+++ b/data/custom_files/kundenmonitor_churn_merged.xlsx
@@ -130,7 +130,7 @@
     <t>Kundenmagazin Gesamtzufriedenheit</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>Jahr</t>
   </si>
   <si>
     <t>Churn_Rate_2023</t>
@@ -373,7 +373,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -426,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -440,17 +440,14 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -772,50 +769,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9122,7 +9119,7 @@
       <c r="E68" s="5">
         <v>3.07285576715462</v>
       </c>
-      <c r="F68" s="8"/>
+      <c r="F68" s="7"/>
       <c r="G68" s="5">
         <v>2.04095438896127</v>
       </c>
@@ -9602,7 +9599,7 @@
       <c r="E72" s="5">
         <v>2.50986245868727</v>
       </c>
-      <c r="F72" s="8"/>
+      <c r="F72" s="7"/>
       <c r="G72" s="5">
         <v>2.1990484260319</v>
       </c>
@@ -9975,7 +9972,7 @@
       <c r="E75" s="5">
         <v>2.42971793193359</v>
       </c>
-      <c r="F75" s="8"/>
+      <c r="F75" s="7"/>
       <c r="G75" s="5">
         <v>2.50483378709952</v>
       </c>
@@ -10465,7 +10462,7 @@
       <c r="E79" s="5">
         <v>2.34673999091219</v>
       </c>
-      <c r="F79" s="8"/>
+      <c r="F79" s="7"/>
       <c r="G79" s="5">
         <v>2.03172070789541</v>
       </c>
@@ -10713,7 +10710,7 @@
       <c r="E81" s="5">
         <v>2.38570484110314</v>
       </c>
-      <c r="F81" s="8"/>
+      <c r="F81" s="7"/>
       <c r="G81" s="5">
         <v>2.15497113760556</v>
       </c>
@@ -11457,7 +11454,7 @@
       <c r="E87" s="5">
         <v>2.40718438506975</v>
       </c>
-      <c r="F87" s="8"/>
+      <c r="F87" s="7"/>
       <c r="G87" s="5">
         <v>1.96658863519428</v>
       </c>
@@ -11955,7 +11952,7 @@
       <c r="E91" s="5">
         <v>2.21205205313545</v>
       </c>
-      <c r="F91" s="8"/>
+      <c r="F91" s="7"/>
       <c r="G91" s="5">
         <v>2.00808650197343</v>
       </c>
@@ -12203,7 +12200,7 @@
       <c r="E93" s="5">
         <v>2.36032001382547</v>
       </c>
-      <c r="F93" s="8"/>
+      <c r="F93" s="7"/>
       <c r="G93" s="5">
         <v>2.06287818755332</v>
       </c>
@@ -12326,7 +12323,7 @@
       <c r="E94" s="5">
         <v>2.24635677815632</v>
       </c>
-      <c r="F94" s="8"/>
+      <c r="F94" s="7"/>
       <c r="G94" s="5">
         <v>1.87724584374701</v>
       </c>
@@ -12816,7 +12813,7 @@
       <c r="E98" s="5">
         <v>2.56787528310196</v>
       </c>
-      <c r="F98" s="8"/>
+      <c r="F98" s="7"/>
       <c r="G98" s="5">
         <v>2.02024470585687</v>
       </c>
@@ -12939,7 +12936,7 @@
       <c r="E99" s="5">
         <v>2.14903414862276</v>
       </c>
-      <c r="F99" s="8"/>
+      <c r="F99" s="7"/>
       <c r="G99" s="5">
         <v>1.70604418648824</v>
       </c>
@@ -13308,7 +13305,7 @@
       <c r="E102" s="5">
         <v>2.11277407372031</v>
       </c>
-      <c r="F102" s="8"/>
+      <c r="F102" s="7"/>
       <c r="G102" s="5">
         <v>2.01346621616587</v>
       </c>
@@ -13431,7 +13428,7 @@
       <c r="E103" s="5">
         <v>2.11055841526038</v>
       </c>
-      <c r="F103" s="8"/>
+      <c r="F103" s="7"/>
       <c r="G103" s="5">
         <v>1.920077116501</v>
       </c>
@@ -13804,7 +13801,7 @@
       <c r="E106" s="5">
         <v>2.32805616085852</v>
       </c>
-      <c r="F106" s="8"/>
+      <c r="F106" s="7"/>
       <c r="G106" s="5">
         <v>2.06126161036316</v>
       </c>
@@ -13927,7 +13924,7 @@
       <c r="E107" s="5">
         <v>2.37732719488878</v>
       </c>
-      <c r="F107" s="8"/>
+      <c r="F107" s="7"/>
       <c r="G107" s="5">
         <v>2.12827434090738</v>
       </c>
@@ -14050,7 +14047,7 @@
       <c r="E108" s="5">
         <v>2.27886941881962</v>
       </c>
-      <c r="F108" s="8"/>
+      <c r="F108" s="7"/>
       <c r="G108" s="5">
         <v>1.89465230432216</v>
       </c>
@@ -15526,7 +15523,7 @@
       <c r="E120" s="5">
         <v>2.0420778154993</v>
       </c>
-      <c r="F120" s="8"/>
+      <c r="F120" s="7"/>
       <c r="G120" s="5">
         <v>1.74947016147058</v>
       </c>
@@ -15649,7 +15646,7 @@
       <c r="E121" s="5">
         <v>2.09353300069324</v>
       </c>
-      <c r="F121" s="8"/>
+      <c r="F121" s="7"/>
       <c r="G121" s="5">
         <v>2.02443792030353</v>
       </c>
@@ -15895,7 +15892,7 @@
       <c r="E123" s="5">
         <v>1.95035425912416</v>
       </c>
-      <c r="F123" s="8"/>
+      <c r="F123" s="7"/>
       <c r="G123" s="5">
         <v>1.80458103300663</v>
       </c>
@@ -16018,7 +16015,7 @@
       <c r="E124" s="5">
         <v>1.79732863508297</v>
       </c>
-      <c r="F124" s="8"/>
+      <c r="F124" s="7"/>
       <c r="G124" s="5">
         <v>1.84151006308011</v>
       </c>
@@ -16141,7 +16138,7 @@
       <c r="E125" s="5">
         <v>1.45357975512744</v>
       </c>
-      <c r="F125" s="8"/>
+      <c r="F125" s="7"/>
       <c r="G125" s="5">
         <v>1.42660887898743</v>
       </c>
